--- a/CSDLGia_ASP/wwwroot/UpLoad/File/DinhGia/Excel/FileExcelGiaDatPl.xlsx
+++ b/CSDLGia_ASP/wwwroot/UpLoad/File/DinhGia/Excel/FileExcelGiaDatPl.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CSDLGia_ASP\CSDLGia_ASP\wwwroot\UpLoad\File\DinhGia\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CSDLGia_ASP\CSDLGia_ASP\wwwroot\UpLoad\File\DinhGia\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{741233A6-3D23-45EF-938A-401A1C0DFB7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D1F12D3-CBD7-4F53-844C-589B58350677}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11310" xr2:uid="{6AF4210B-D7D1-451E-A048-5B80F2CEA5CC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6AF4210B-D7D1-451E-A048-5B80F2CEA5CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,28 +25,46 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>Phân loại</t>
-  </si>
-  <si>
-    <t>Giá</t>
-  </si>
-  <si>
-    <t>Đơn vị</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>m2</t>
   </si>
   <si>
-    <t>Nhà tường 110</t>
+    <t>Đất Trông Cây Lâu Năm</t>
+  </si>
+  <si>
+    <t>Tên đường giới hạn khu vực</t>
+  </si>
+  <si>
+    <t>Loại đất*</t>
+  </si>
+  <si>
+    <t>Vị trí*</t>
+  </si>
+  <si>
+    <t>Giá tại bảng giá*</t>
+  </si>
+  <si>
+    <t>Giá đất cụ thể*</t>
+  </si>
+  <si>
+    <t>Hệ số điều chỉnh*</t>
+  </si>
+  <si>
+    <t>Địa giới - Từ</t>
+  </si>
+  <si>
+    <t>Địa giới - Đến</t>
+  </si>
+  <si>
+    <t>HN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -54,6 +72,12 @@
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -76,8 +100,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -392,45 +417,78 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD0BC2B6-4560-4170-B0EA-9A729F87B874}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" customWidth="1"/>
-    <col min="3" max="3" width="38.42578125" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" customWidth="1"/>
-    <col min="5" max="5" width="19.140625" customWidth="1"/>
-    <col min="6" max="6" width="27.140625" customWidth="1"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" customWidth="1"/>
+    <col min="4" max="4" width="38.42578125" customWidth="1"/>
+    <col min="5" max="6" width="25.5703125" customWidth="1"/>
+    <col min="7" max="7" width="25.28515625" customWidth="1"/>
+    <col min="8" max="8" width="25.42578125" customWidth="1"/>
+    <col min="9" max="9" width="27.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D2">
+        <v>5000</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G2">
+        <v>3</v>
+      </c>
+      <c r="H2">
         <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2">
-        <v>5000</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/CSDLGia_ASP/wwwroot/UpLoad/File/DinhGia/Excel/FileExcelGiaDatPl.xlsx
+++ b/CSDLGia_ASP/wwwroot/UpLoad/File/DinhGia/Excel/FileExcelGiaDatPl.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CSDLGia_ASP\CSDLGia_ASP\wwwroot\UpLoad\File\DinhGia\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D1F12D3-CBD7-4F53-844C-589B58350677}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0497D9D4-66DD-48E6-8A17-BDA204916030}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6AF4210B-D7D1-451E-A048-5B80F2CEA5CC}"/>
   </bookViews>
@@ -25,20 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>m2</t>
-  </si>
-  <si>
-    <t>Đất Trông Cây Lâu Năm</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Tên đường giới hạn khu vực</t>
   </si>
   <si>
-    <t>Loại đất*</t>
-  </si>
-  <si>
     <t>Vị trí*</t>
   </si>
   <si>
@@ -58,6 +49,12 @@
   </si>
   <si>
     <t>HN</t>
+  </si>
+  <si>
+    <t>Mã loại đất</t>
+  </si>
+  <si>
+    <t>CHN</t>
   </si>
 </sst>
 </file>
@@ -417,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD0BC2B6-4560-4170-B0EA-9A729F87B874}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -436,54 +433,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1">
+        <v>6</v>
+      </c>
+      <c r="G1">
+        <v>7</v>
+      </c>
+      <c r="H1">
         <v>8</v>
-      </c>
-      <c r="F1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2">
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
         <v>5000</v>
       </c>
-      <c r="E2">
+      <c r="E3">
         <v>1</v>
       </c>
-      <c r="F2">
+      <c r="F3">
         <v>2</v>
       </c>
-      <c r="G2">
+      <c r="G3">
         <v>3</v>
       </c>
-      <c r="H2">
+      <c r="H3">
         <v>1</v>
       </c>
     </row>

--- a/CSDLGia_ASP/wwwroot/UpLoad/File/DinhGia/Excel/FileExcelGiaDatPl.xlsx
+++ b/CSDLGia_ASP/wwwroot/UpLoad/File/DinhGia/Excel/FileExcelGiaDatPl.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0497D9D4-66DD-48E6-8A17-BDA204916030}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19BC1193-7957-4B5A-9AE8-1D6D3DF5ECB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6AF4210B-D7D1-451E-A048-5B80F2CEA5CC}"/>
+    <workbookView xWindow="105" yWindow="390" windowWidth="28695" windowHeight="15465" xr2:uid="{6AF4210B-D7D1-451E-A048-5B80F2CEA5CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,36 +25,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>Tên đường giới hạn khu vực</t>
-  </si>
-  <si>
-    <t>Vị trí*</t>
-  </si>
-  <si>
-    <t>Giá tại bảng giá*</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Giá đất cụ thể*</t>
   </si>
   <si>
-    <t>Hệ số điều chỉnh*</t>
+    <t>STT</t>
   </si>
   <si>
-    <t>Địa giới - Từ</t>
+    <t>Tên đường, loại đất, giới hạn khu vực</t>
   </si>
   <si>
-    <t>Địa giới - Đến</t>
-  </si>
-  <si>
-    <t>HN</t>
-  </si>
-  <si>
-    <t>Mã loại đất</t>
-  </si>
-  <si>
-    <t>CHN</t>
+    <t>Đường Nguyễn Bình Khiêm</t>
   </si>
 </sst>
 </file>
@@ -97,9 +79,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -414,17 +398,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD0BC2B6-4560-4170-B0EA-9A729F87B874}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A2:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="2" width="28.7109375" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" customWidth="1"/>
+    <col min="1" max="1" width="26.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="41.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="38.42578125" customWidth="1"/>
     <col min="5" max="6" width="25.5703125" customWidth="1"/>
     <col min="7" max="7" width="25.28515625" customWidth="1"/>
@@ -432,82 +416,26 @@
     <col min="9" max="9" width="27.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1">
+      <c r="C2" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D1">
-        <v>4</v>
-      </c>
-      <c r="E1">
-        <v>5</v>
-      </c>
-      <c r="F1">
-        <v>6</v>
-      </c>
-      <c r="G1">
-        <v>7</v>
-      </c>
-      <c r="H1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>5000</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="G3">
-        <v>3</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
+      <c r="C3" s="1">
+        <v>29362500</v>
       </c>
     </row>
   </sheetData>

--- a/CSDLGia_ASP/wwwroot/UpLoad/File/DinhGia/Excel/FileExcelGiaDatPl.xlsx
+++ b/CSDLGia_ASP/wwwroot/UpLoad/File/DinhGia/Excel/FileExcelGiaDatPl.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\excel csdlgia\CSDLGia_ASP\CSDLGia_ASP\wwwroot\UpLoad\File\DinhGia\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19BC1193-7957-4B5A-9AE8-1D6D3DF5ECB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6854A937-0DDC-496D-9252-F627D39A9797}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="105" yWindow="390" windowWidth="28695" windowHeight="15465" xr2:uid="{6AF4210B-D7D1-451E-A048-5B80F2CEA5CC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6AF4210B-D7D1-451E-A048-5B80F2CEA5CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" calcOnSave="0"/>
+  <calcPr calcId="181029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Giá đất cụ thể*</t>
   </si>
@@ -38,21 +38,33 @@
   <si>
     <t>Đường Nguyễn Bình Khiêm</t>
   </si>
+  <si>
+    <t>GIÁ ĐẤT PHÂN LOẠI</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -67,7 +79,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -75,15 +87,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -398,47 +443,62 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD0BC2B6-4560-4170-B0EA-9A729F87B874}">
-  <dimension ref="A2:C3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="41.7109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="25.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="38.42578125" customWidth="1"/>
-    <col min="5" max="6" width="25.5703125" customWidth="1"/>
-    <col min="7" max="7" width="25.28515625" customWidth="1"/>
-    <col min="8" max="8" width="25.42578125" customWidth="1"/>
-    <col min="9" max="9" width="27.140625" customWidth="1"/>
+    <col min="1" max="1" width="26.75" customWidth="1"/>
+    <col min="2" max="2" width="41.75" customWidth="1"/>
+    <col min="3" max="3" width="25.75" style="5" customWidth="1"/>
+    <col min="4" max="4" width="38.375" customWidth="1"/>
+    <col min="5" max="6" width="25.625" customWidth="1"/>
+    <col min="7" max="7" width="25.25" customWidth="1"/>
+    <col min="8" max="8" width="25.375" customWidth="1"/>
+    <col min="9" max="9" width="27.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+    </row>
+    <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="4">
         <v>29362500</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Lỗi định dạng giá trị" error="Giá trị vừa nhập có định dạng không hợp lệ" sqref="C3:C1048576" xr:uid="{44F00DBE-B51F-4F73-9760-EC3B5B8043D1}">
+      <formula1>0</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/CSDLGia_ASP/wwwroot/UpLoad/File/DinhGia/Excel/FileExcelGiaDatPl.xlsx
+++ b/CSDLGia_ASP/wwwroot/UpLoad/File/DinhGia/Excel/FileExcelGiaDatPl.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\excel csdlgia\CSDLGia_ASP\CSDLGia_ASP\wwwroot\UpLoad\File\DinhGia\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\csdl gia\CSDLGia_ASP\CSDLGia_ASP\wwwroot\UpLoad\File\DinhGia\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6854A937-0DDC-496D-9252-F627D39A9797}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1A31236-B158-4C32-83E6-C22ADC9A47D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6AF4210B-D7D1-451E-A048-5B80F2CEA5CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029" calcOnSave="0"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Giá đất cụ thể*</t>
   </si>
@@ -41,16 +41,19 @@
   <si>
     <t>GIÁ ĐẤT PHÂN LOẠI</t>
   </si>
+  <si>
+    <t>Mã xã phường lấy trong phần mềm(Khi chọn xã trong from excell )</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -59,7 +62,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -70,6 +73,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="163"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -79,7 +91,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -102,20 +114,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -126,9 +129,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -147,9 +152,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -187,7 +192,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -293,7 +298,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -435,7 +440,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -443,32 +448,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD0BC2B6-4560-4170-B0EA-9A729F87B874}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.75" customWidth="1"/>
-    <col min="2" max="2" width="41.75" customWidth="1"/>
-    <col min="3" max="3" width="25.75" style="5" customWidth="1"/>
-    <col min="4" max="4" width="38.375" customWidth="1"/>
-    <col min="5" max="6" width="25.625" customWidth="1"/>
-    <col min="7" max="7" width="25.25" customWidth="1"/>
-    <col min="8" max="8" width="25.375" customWidth="1"/>
-    <col min="9" max="9" width="27.125" customWidth="1"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="41.7109375" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="61.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="25.5703125" customWidth="1"/>
+    <col min="7" max="7" width="25.28515625" customWidth="1"/>
+    <col min="8" max="8" width="25.42578125" customWidth="1"/>
+    <col min="9" max="9" width="27.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
     </row>
-    <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -478,8 +483,11 @@
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="D2" s="8" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -489,6 +497,7 @@
       <c r="C3" s="4">
         <v>29362500</v>
       </c>
+      <c r="D3" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/CSDLGia_ASP/wwwroot/UpLoad/File/DinhGia/Excel/FileExcelGiaDatPl.xlsx
+++ b/CSDLGia_ASP/wwwroot/UpLoad/File/DinhGia/Excel/FileExcelGiaDatPl.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\csdl gia\CSDLGia_ASP\CSDLGia_ASP\wwwroot\UpLoad\File\DinhGia\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1A31236-B158-4C32-83E6-C22ADC9A47D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F697F790-A0D4-42AB-A404-09FBEA2BEB80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6AF4210B-D7D1-451E-A048-5B80F2CEA5CC}"/>
   </bookViews>
@@ -42,7 +42,7 @@
     <t>GIÁ ĐẤT PHÂN LOẠI</t>
   </si>
   <si>
-    <t>Mã xã phường lấy trong phần mềm(Khi chọn xã trong from excell )</t>
+    <t>Mã địa bàn xã phường lấy trong phần mềm(bắt buộc khi không chọn xã trong from excell )</t>
   </si>
 </sst>
 </file>
@@ -130,10 +130,10 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -451,7 +451,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -459,7 +459,7 @@
     <col min="1" max="1" width="26.7109375" customWidth="1"/>
     <col min="2" max="2" width="41.7109375" customWidth="1"/>
     <col min="3" max="3" width="25.7109375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="61.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="82.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="25.5703125" customWidth="1"/>
     <col min="7" max="7" width="25.28515625" customWidth="1"/>
     <col min="8" max="8" width="25.42578125" customWidth="1"/>
@@ -467,11 +467,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
     </row>
     <row r="2" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -483,7 +483,7 @@
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>5</v>
       </c>
     </row>
